--- a/Code/Results/Cases/Case_2_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007043669714226</v>
+        <v>1.032261480122114</v>
       </c>
       <c r="D2">
-        <v>1.02205463410327</v>
+        <v>1.035308803580233</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.011882680522926</v>
+        <v>1.041942261124692</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043840907793015</v>
+        <v>1.036631949492165</v>
       </c>
       <c r="J2">
-        <v>1.029015727660331</v>
+        <v>1.037392672141993</v>
       </c>
       <c r="K2">
-        <v>1.033215031119173</v>
+        <v>1.038105779121182</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.023178916192993</v>
+        <v>1.044720349950321</v>
       </c>
       <c r="N2">
-        <v>1.013441143485664</v>
+        <v>1.016427378699448</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01150621213596</v>
+        <v>1.033182000603881</v>
       </c>
       <c r="D3">
-        <v>1.025241579979152</v>
+        <v>1.035984231674604</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.017130343732489</v>
+        <v>1.043105570518958</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045214847358694</v>
+        <v>1.036863523839338</v>
       </c>
       <c r="J3">
-        <v>1.03168804625213</v>
+        <v>1.037955560540912</v>
       </c>
       <c r="K3">
-        <v>1.035561364023579</v>
+        <v>1.038590931600067</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.027548631848276</v>
+        <v>1.045693465348894</v>
       </c>
       <c r="N3">
-        <v>1.01434296534064</v>
+        <v>1.016615980641403</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014331629742251</v>
+        <v>1.033777730515216</v>
       </c>
       <c r="D4">
-        <v>1.027262222545943</v>
+        <v>1.036421361334773</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.020455770771867</v>
+        <v>1.043858823678255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04607563452215</v>
+        <v>1.037012260446804</v>
       </c>
       <c r="J4">
-        <v>1.033375702394691</v>
+        <v>1.038319259017732</v>
       </c>
       <c r="K4">
-        <v>1.037042384624177</v>
+        <v>1.038904260919876</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.030313425582165</v>
+        <v>1.04632307533639</v>
       </c>
       <c r="N4">
-        <v>1.014912332930788</v>
+        <v>1.016737787491219</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015505093005836</v>
+        <v>1.034028196712646</v>
       </c>
       <c r="D5">
-        <v>1.028102081044128</v>
+        <v>1.036605149372438</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.021837643157056</v>
+        <v>1.044175614520164</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046430923318572</v>
+        <v>1.037074523849884</v>
       </c>
       <c r="J5">
-        <v>1.03407556824674</v>
+        <v>1.038472030883515</v>
       </c>
       <c r="K5">
-        <v>1.037656365370397</v>
+        <v>1.039035841068437</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.031461284898429</v>
+        <v>1.046587748817693</v>
       </c>
       <c r="N5">
-        <v>1.015148405398265</v>
+        <v>1.016788939485274</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015701296657984</v>
+        <v>1.034070252323809</v>
       </c>
       <c r="D6">
-        <v>1.028242541920589</v>
+        <v>1.036636009261034</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.022068737840327</v>
+        <v>1.044228812325243</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046490196582486</v>
+        <v>1.037084962572465</v>
       </c>
       <c r="J6">
-        <v>1.03419252320499</v>
+        <v>1.038497674489349</v>
       </c>
       <c r="K6">
-        <v>1.037758956316248</v>
+        <v>1.039057925521332</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.03165318307328</v>
+        <v>1.046632187805837</v>
       </c>
       <c r="N6">
-        <v>1.015187852989466</v>
+        <v>1.016797524862097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014347365282514</v>
+        <v>1.03378107717367</v>
       </c>
       <c r="D7">
-        <v>1.027273482160783</v>
+        <v>1.036423817047229</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.020474297978823</v>
+        <v>1.043863056168687</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046080407561587</v>
+        <v>1.037013093456959</v>
       </c>
       <c r="J7">
-        <v>1.033385091452001</v>
+        <v>1.038321300862524</v>
       </c>
       <c r="K7">
-        <v>1.03705062226959</v>
+        <v>1.038906019664895</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.030328819443586</v>
+        <v>1.046326611973612</v>
       </c>
       <c r="N7">
-        <v>1.014915500136245</v>
+        <v>1.016738471205475</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008565006091057</v>
+        <v>1.032572555007082</v>
       </c>
       <c r="D8">
-        <v>1.023140474177374</v>
+        <v>1.035537049964492</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.013671089214427</v>
+        <v>1.042335300581817</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04431119383406</v>
+        <v>1.036710440237049</v>
       </c>
       <c r="J8">
-        <v>1.029927639813143</v>
+        <v>1.037583011879963</v>
       </c>
       <c r="K8">
-        <v>1.034015857046876</v>
+        <v>1.038269861861485</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.024669007230338</v>
+        <v>1.045049231423173</v>
       </c>
       <c r="N8">
-        <v>1.013748916498889</v>
+        <v>1.016491165332899</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9978742009614606</v>
+        <v>1.03044371182344</v>
       </c>
       <c r="D9">
-        <v>1.015524229589562</v>
+        <v>1.033975130152874</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.001114020259122</v>
+        <v>1.039647132625252</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040968905619527</v>
+        <v>1.036168659269591</v>
       </c>
       <c r="J9">
-        <v>1.023502250647999</v>
+        <v>1.036278034238513</v>
       </c>
       <c r="K9">
-        <v>1.028370359907107</v>
+        <v>1.037144327495757</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.014189049082179</v>
+        <v>1.042797858708605</v>
       </c>
       <c r="N9">
-        <v>1.011579785310222</v>
+        <v>1.016053620951186</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9903714849430658</v>
+        <v>1.029025004597021</v>
       </c>
       <c r="D10">
-        <v>1.010199711678142</v>
+        <v>1.032934365221595</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9923127083524825</v>
+        <v>1.037857653953606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038577050583608</v>
+        <v>1.035801798039948</v>
       </c>
       <c r="J10">
-        <v>1.018972396777094</v>
+        <v>1.035405380490683</v>
       </c>
       <c r="K10">
-        <v>1.024387217251224</v>
+        <v>1.036390952824614</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.006822160357302</v>
+        <v>1.041296628452782</v>
       </c>
       <c r="N10">
-        <v>1.01005003578222</v>
+        <v>1.015760755896991</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9870243081764133</v>
+        <v>1.028410818609749</v>
       </c>
       <c r="D11">
-        <v>1.007829975012179</v>
+        <v>1.03248383689641</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.988388050140633</v>
+        <v>1.037083411164268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037499456611818</v>
+        <v>1.035641601063421</v>
       </c>
       <c r="J11">
-        <v>1.01694703454634</v>
+        <v>1.035026885315719</v>
       </c>
       <c r="K11">
-        <v>1.022605724849246</v>
+        <v>1.036064024586191</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.00353232429718</v>
+        <v>1.040646502975415</v>
       </c>
       <c r="N11">
-        <v>1.009365991835202</v>
+        <v>1.015633667766922</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9857653595093413</v>
+        <v>1.028182701573332</v>
       </c>
       <c r="D12">
-        <v>1.00693959098153</v>
+        <v>1.032316511057282</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9869121046384262</v>
+        <v>1.03679591465815</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037092609072831</v>
+        <v>1.035581895165898</v>
       </c>
       <c r="J12">
-        <v>1.016184616087195</v>
+        <v>1.034886201117488</v>
       </c>
       <c r="K12">
-        <v>1.021935036197454</v>
+        <v>1.035942482439907</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.002294418254781</v>
+        <v>1.040405004740572</v>
       </c>
       <c r="N12">
-        <v>1.009108487322495</v>
+        <v>1.015586420380179</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9860361314906729</v>
+        <v>1.028231632586159</v>
       </c>
       <c r="D13">
-        <v>1.007131049757542</v>
+        <v>1.032352402077638</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9872295397075076</v>
+        <v>1.03685757948964</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037180181885535</v>
+        <v>1.035594711402585</v>
       </c>
       <c r="J13">
-        <v>1.016348623454488</v>
+        <v>1.034916382612576</v>
       </c>
       <c r="K13">
-        <v>1.022079314130001</v>
+        <v>1.035968558451045</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.002560688731176</v>
+        <v>1.040456807509529</v>
       </c>
       <c r="N13">
-        <v>1.009163880506845</v>
+        <v>1.015596556965833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9869205677577403</v>
+        <v>1.028391961994638</v>
       </c>
       <c r="D14">
-        <v>1.007756585931469</v>
+        <v>1.032470005267907</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.988266424889012</v>
+        <v>1.037059644744236</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037465962448626</v>
+        <v>1.035636669866535</v>
       </c>
       <c r="J14">
-        <v>1.016884222086589</v>
+        <v>1.035015258235742</v>
       </c>
       <c r="K14">
-        <v>1.022550470989967</v>
+        <v>1.036053980042768</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.00343032871512</v>
+        <v>1.040626540916118</v>
       </c>
       <c r="N14">
-        <v>1.009344777213103</v>
+        <v>1.01562976312236</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9874633962149421</v>
+        <v>1.028490748763031</v>
       </c>
       <c r="D15">
-        <v>1.008140637281667</v>
+        <v>1.032542467211655</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9889028448804529</v>
+        <v>1.03718415596101</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037641160312311</v>
+        <v>1.035662495153793</v>
       </c>
       <c r="J15">
-        <v>1.017212866735109</v>
+        <v>1.035076166296956</v>
       </c>
       <c r="K15">
-        <v>1.022839565030659</v>
+        <v>1.036106597016029</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.003964005610866</v>
+        <v>1.040731117581874</v>
       </c>
       <c r="N15">
-        <v>1.009455775228814</v>
+        <v>1.015650217078761</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9905914792757902</v>
+        <v>1.029065768737861</v>
       </c>
       <c r="D16">
-        <v>1.010355587868273</v>
+        <v>1.032964268117419</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9925706905773771</v>
+        <v>1.037909050784578</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038647660186111</v>
+        <v>1.035812401498789</v>
       </c>
       <c r="J16">
-        <v>1.019105424518576</v>
+        <v>1.035430486727912</v>
       </c>
       <c r="K16">
-        <v>1.024504216690293</v>
+        <v>1.036412635018854</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.007038315260766</v>
+        <v>1.041339773373421</v>
       </c>
       <c r="N16">
-        <v>1.010094963359039</v>
+        <v>1.015769184528679</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9925266932706841</v>
+        <v>1.029426496961561</v>
       </c>
       <c r="D17">
-        <v>1.011727431646409</v>
+        <v>1.033228888090423</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9948402741539606</v>
+        <v>1.038363922066092</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039267597032639</v>
+        <v>1.035906074239954</v>
       </c>
       <c r="J17">
-        <v>1.020275120169242</v>
+        <v>1.035652574140169</v>
       </c>
       <c r="K17">
-        <v>1.025532914240505</v>
+        <v>1.036604414317347</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.008939380954304</v>
+        <v>1.041721544717221</v>
       </c>
       <c r="N17">
-        <v>1.010489998188034</v>
+        <v>1.015843736024145</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9936460336863777</v>
+        <v>1.029636915529425</v>
       </c>
       <c r="D18">
-        <v>1.012521448713123</v>
+        <v>1.033383248900168</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9961531973899483</v>
+        <v>1.038629299988447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039625172880549</v>
+        <v>1.035960582305509</v>
       </c>
       <c r="J18">
-        <v>1.020951254152983</v>
+        <v>1.035782053120192</v>
       </c>
       <c r="K18">
-        <v>1.026127490129736</v>
+        <v>1.03671620720082</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.010038663680081</v>
+        <v>1.041944217502855</v>
       </c>
       <c r="N18">
-        <v>1.010718338126859</v>
+        <v>1.015887194041658</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9940261243952623</v>
+        <v>1.029708664828842</v>
       </c>
       <c r="D19">
-        <v>1.012791158846018</v>
+        <v>1.033435884031265</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9965990551896197</v>
+        <v>1.038719797055504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039746422978805</v>
+        <v>1.03597914614686</v>
       </c>
       <c r="J19">
-        <v>1.021180773458588</v>
+        <v>1.035826191770978</v>
       </c>
       <c r="K19">
-        <v>1.026329314079081</v>
+        <v>1.036754314009934</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.010411892546841</v>
+        <v>1.042020141822018</v>
       </c>
       <c r="N19">
-        <v>1.010795848686718</v>
+        <v>1.015902007582809</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.992320045309983</v>
+        <v>1.029387793003308</v>
       </c>
       <c r="D20">
-        <v>1.011580886159489</v>
+        <v>1.033200495576348</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9945979028922241</v>
+        <v>1.038315112561897</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039201501769647</v>
+        <v>1.035896037450732</v>
       </c>
       <c r="J20">
-        <v>1.020150260466007</v>
+        <v>1.035628752553258</v>
       </c>
       <c r="K20">
-        <v>1.025423111070485</v>
+        <v>1.036583845319466</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.008736411455987</v>
+        <v>1.041680585092084</v>
       </c>
       <c r="N20">
-        <v>1.010447830710813</v>
+        <v>1.015835740104911</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9866605628609262</v>
+        <v>1.028344748452494</v>
       </c>
       <c r="D21">
-        <v>1.007572665868696</v>
+        <v>1.032435373487711</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9879615982628329</v>
+        <v>1.037000139033847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037381991269916</v>
+        <v>1.035624319707957</v>
       </c>
       <c r="J21">
-        <v>1.016726784961625</v>
+        <v>1.034986144426824</v>
       </c>
       <c r="K21">
-        <v>1.022411978119162</v>
+        <v>1.036028828447126</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.003174688333486</v>
+        <v>1.040576559010431</v>
       </c>
       <c r="N21">
-        <v>1.009291603460678</v>
+        <v>1.015619985872421</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9830111491011336</v>
+        <v>1.027689054998954</v>
       </c>
       <c r="D22">
-        <v>1.004993482063816</v>
+        <v>1.031954429592371</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9836834644777301</v>
+        <v>1.036173893564367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036199758578575</v>
+        <v>1.035452313668282</v>
       </c>
       <c r="J22">
-        <v>1.014515543569753</v>
+        <v>1.034581566192055</v>
       </c>
       <c r="K22">
-        <v>1.020466661925337</v>
+        <v>1.035679251733601</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9995852361274022</v>
+        <v>1.039882340484846</v>
       </c>
       <c r="N22">
-        <v>1.008544757345687</v>
+        <v>1.015484094377498</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9849547122606652</v>
+        <v>1.028036639933616</v>
       </c>
       <c r="D23">
-        <v>1.00636653631658</v>
+        <v>1.032209375481758</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.985961780138466</v>
+        <v>1.036611851760604</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036830207791104</v>
+        <v>1.035543607790124</v>
       </c>
       <c r="J23">
-        <v>1.015693514701721</v>
+        <v>1.034796092273919</v>
       </c>
       <c r="K23">
-        <v>1.021503003032153</v>
+        <v>1.035864627135417</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.001497168008885</v>
+        <v>1.04025036590585</v>
       </c>
       <c r="N23">
-        <v>1.0089426182232</v>
+        <v>1.015556155541897</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9924134497285406</v>
+        <v>1.029405281619244</v>
       </c>
       <c r="D24">
-        <v>1.011647122744111</v>
+        <v>1.033213324892899</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9947074535958081</v>
+        <v>1.038337167292727</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039231379784745</v>
+        <v>1.035900573044374</v>
       </c>
       <c r="J24">
-        <v>1.020206698096842</v>
+        <v>1.035639516691006</v>
       </c>
       <c r="K24">
-        <v>1.025472743194555</v>
+        <v>1.036593139776625</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.008828154164344</v>
+        <v>1.041699093008076</v>
       </c>
       <c r="N24">
-        <v>1.010466890785628</v>
+        <v>1.015839353198855</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000701245644799</v>
+        <v>1.03099397927544</v>
       </c>
       <c r="D25">
-        <v>1.017534977535264</v>
+        <v>1.034378837461393</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.004432417498606</v>
+        <v>1.040341623565453</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041860837233836</v>
+        <v>1.036309724100175</v>
       </c>
       <c r="J25">
-        <v>1.025205033101128</v>
+        <v>1.036615875015264</v>
       </c>
       <c r="K25">
-        <v>1.029867050051203</v>
+        <v>1.037435839763182</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.0169623133715</v>
+        <v>1.043379947889332</v>
       </c>
       <c r="N25">
-        <v>1.012154731286652</v>
+        <v>1.016166943723637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032261480122114</v>
+        <v>1.007043669714225</v>
       </c>
       <c r="D2">
-        <v>1.035308803580233</v>
+        <v>1.022054634103269</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.041942261124692</v>
+        <v>1.011882680522925</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036631949492165</v>
+        <v>1.043840907793015</v>
       </c>
       <c r="J2">
-        <v>1.037392672141993</v>
+        <v>1.029015727660331</v>
       </c>
       <c r="K2">
-        <v>1.038105779121182</v>
+        <v>1.033215031119172</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.044720349950321</v>
+        <v>1.023178916192993</v>
       </c>
       <c r="N2">
-        <v>1.016427378699448</v>
+        <v>1.013441143485664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033182000603881</v>
+        <v>1.01150621213596</v>
       </c>
       <c r="D3">
-        <v>1.035984231674604</v>
+        <v>1.025241579979153</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.043105570518958</v>
+        <v>1.017130343732489</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036863523839338</v>
+        <v>1.045214847358694</v>
       </c>
       <c r="J3">
-        <v>1.037955560540912</v>
+        <v>1.031688046252131</v>
       </c>
       <c r="K3">
-        <v>1.038590931600067</v>
+        <v>1.03556136402358</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.045693465348894</v>
+        <v>1.027548631848276</v>
       </c>
       <c r="N3">
-        <v>1.016615980641403</v>
+        <v>1.01434296534064</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033777730515216</v>
+        <v>1.01433162974225</v>
       </c>
       <c r="D4">
-        <v>1.036421361334773</v>
+        <v>1.027262222545942</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.043858823678255</v>
+        <v>1.020455770771866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037012260446804</v>
+        <v>1.046075634522149</v>
       </c>
       <c r="J4">
-        <v>1.038319259017732</v>
+        <v>1.03337570239469</v>
       </c>
       <c r="K4">
-        <v>1.038904260919876</v>
+        <v>1.037042384624176</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.04632307533639</v>
+        <v>1.030313425582164</v>
       </c>
       <c r="N4">
-        <v>1.016737787491219</v>
+        <v>1.014912332930788</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034028196712646</v>
+        <v>1.015505093005836</v>
       </c>
       <c r="D5">
-        <v>1.036605149372438</v>
+        <v>1.028102081044128</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.044175614520164</v>
+        <v>1.021837643157056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037074523849884</v>
+        <v>1.046430923318572</v>
       </c>
       <c r="J5">
-        <v>1.038472030883515</v>
+        <v>1.03407556824674</v>
       </c>
       <c r="K5">
-        <v>1.039035841068437</v>
+        <v>1.037656365370397</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.046587748817693</v>
+        <v>1.031461284898429</v>
       </c>
       <c r="N5">
-        <v>1.016788939485274</v>
+        <v>1.015148405398265</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034070252323809</v>
+        <v>1.015701296657983</v>
       </c>
       <c r="D6">
-        <v>1.036636009261034</v>
+        <v>1.028242541920589</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.044228812325243</v>
+        <v>1.022068737840327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037084962572465</v>
+        <v>1.046490196582486</v>
       </c>
       <c r="J6">
-        <v>1.038497674489349</v>
+        <v>1.03419252320499</v>
       </c>
       <c r="K6">
-        <v>1.039057925521332</v>
+        <v>1.037758956316248</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.046632187805837</v>
+        <v>1.03165318307328</v>
       </c>
       <c r="N6">
-        <v>1.016797524862097</v>
+        <v>1.015187852989466</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03378107717367</v>
+        <v>1.014347365282513</v>
       </c>
       <c r="D7">
-        <v>1.036423817047229</v>
+        <v>1.027273482160783</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.043863056168687</v>
+        <v>1.020474297978823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037013093456959</v>
+        <v>1.046080407561587</v>
       </c>
       <c r="J7">
-        <v>1.038321300862524</v>
+        <v>1.033385091452</v>
       </c>
       <c r="K7">
-        <v>1.038906019664895</v>
+        <v>1.037050622269589</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.046326611973612</v>
+        <v>1.030328819443586</v>
       </c>
       <c r="N7">
-        <v>1.016738471205475</v>
+        <v>1.014915500136245</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032572555007082</v>
+        <v>1.008565006091057</v>
       </c>
       <c r="D8">
-        <v>1.035537049964492</v>
+        <v>1.023140474177374</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.042335300581817</v>
+        <v>1.013671089214427</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036710440237049</v>
+        <v>1.04431119383406</v>
       </c>
       <c r="J8">
-        <v>1.037583011879963</v>
+        <v>1.029927639813144</v>
       </c>
       <c r="K8">
-        <v>1.038269861861485</v>
+        <v>1.034015857046876</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.045049231423173</v>
+        <v>1.024669007230338</v>
       </c>
       <c r="N8">
-        <v>1.016491165332899</v>
+        <v>1.013748916498889</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03044371182344</v>
+        <v>0.9978742009614608</v>
       </c>
       <c r="D9">
-        <v>1.033975130152874</v>
+        <v>1.015524229589562</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.039647132625252</v>
+        <v>1.001114020259121</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036168659269591</v>
+        <v>1.040968905619527</v>
       </c>
       <c r="J9">
-        <v>1.036278034238513</v>
+        <v>1.023502250648</v>
       </c>
       <c r="K9">
-        <v>1.037144327495757</v>
+        <v>1.028370359907107</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.042797858708605</v>
+        <v>1.014189049082179</v>
       </c>
       <c r="N9">
-        <v>1.016053620951186</v>
+        <v>1.011579785310222</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029025004597021</v>
+        <v>0.9903714849430653</v>
       </c>
       <c r="D10">
-        <v>1.032934365221595</v>
+        <v>1.010199711678141</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.037857653953606</v>
+        <v>0.9923127083524818</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035801798039948</v>
+        <v>1.038577050583608</v>
       </c>
       <c r="J10">
-        <v>1.035405380490683</v>
+        <v>1.018972396777093</v>
       </c>
       <c r="K10">
-        <v>1.036390952824614</v>
+        <v>1.024387217251223</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.041296628452782</v>
+        <v>1.006822160357301</v>
       </c>
       <c r="N10">
-        <v>1.015760755896991</v>
+        <v>1.01005003578222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028410818609749</v>
+        <v>0.9870243081764136</v>
       </c>
       <c r="D11">
-        <v>1.03248383689641</v>
+        <v>1.00782997501218</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.037083411164268</v>
+        <v>0.9883880501406331</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035641601063421</v>
+        <v>1.037499456611818</v>
       </c>
       <c r="J11">
-        <v>1.035026885315719</v>
+        <v>1.016947034546341</v>
       </c>
       <c r="K11">
-        <v>1.036064024586191</v>
+        <v>1.022605724849247</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.040646502975415</v>
+        <v>1.00353232429718</v>
       </c>
       <c r="N11">
-        <v>1.015633667766922</v>
+        <v>1.009365991835202</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028182701573332</v>
+        <v>0.9857653595093423</v>
       </c>
       <c r="D12">
-        <v>1.032316511057282</v>
+        <v>1.006939590981531</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.03679591465815</v>
+        <v>0.9869121046384268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035581895165898</v>
+        <v>1.037092609072831</v>
       </c>
       <c r="J12">
-        <v>1.034886201117488</v>
+        <v>1.016184616087196</v>
       </c>
       <c r="K12">
-        <v>1.035942482439907</v>
+        <v>1.021935036197455</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.040405004740572</v>
+        <v>1.002294418254782</v>
       </c>
       <c r="N12">
-        <v>1.015586420380179</v>
+        <v>1.009108487322496</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028231632586159</v>
+        <v>0.9860361314906729</v>
       </c>
       <c r="D13">
-        <v>1.032352402077638</v>
+        <v>1.007131049757542</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.03685757948964</v>
+        <v>0.9872295397075076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035594711402585</v>
+        <v>1.037180181885535</v>
       </c>
       <c r="J13">
-        <v>1.034916382612576</v>
+        <v>1.016348623454488</v>
       </c>
       <c r="K13">
-        <v>1.035968558451045</v>
+        <v>1.022079314130001</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.040456807509529</v>
+        <v>1.002560688731176</v>
       </c>
       <c r="N13">
-        <v>1.015596556965833</v>
+        <v>1.009163880506845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028391961994638</v>
+        <v>0.9869205677577406</v>
       </c>
       <c r="D14">
-        <v>1.032470005267907</v>
+        <v>1.00775658593147</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.037059644744236</v>
+        <v>0.9882664248890126</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035636669866535</v>
+        <v>1.037465962448626</v>
       </c>
       <c r="J14">
-        <v>1.035015258235742</v>
+        <v>1.016884222086589</v>
       </c>
       <c r="K14">
-        <v>1.036053980042768</v>
+        <v>1.022550470989968</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.040626540916118</v>
+        <v>1.003430328715121</v>
       </c>
       <c r="N14">
-        <v>1.01562976312236</v>
+        <v>1.009344777213103</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028490748763031</v>
+        <v>0.9874633962149436</v>
       </c>
       <c r="D15">
-        <v>1.032542467211655</v>
+        <v>1.008140637281669</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.03718415596101</v>
+        <v>0.9889028448804543</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035662495153793</v>
+        <v>1.037641160312312</v>
       </c>
       <c r="J15">
-        <v>1.035076166296956</v>
+        <v>1.017212866735111</v>
       </c>
       <c r="K15">
-        <v>1.036106597016029</v>
+        <v>1.02283956503066</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.040731117581874</v>
+        <v>1.003964005610868</v>
       </c>
       <c r="N15">
-        <v>1.015650217078761</v>
+        <v>1.009455775228815</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029065768737861</v>
+        <v>0.9905914792757903</v>
       </c>
       <c r="D16">
-        <v>1.032964268117419</v>
+        <v>1.010355587868273</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.037909050784578</v>
+        <v>0.992570690577377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035812401498789</v>
+        <v>1.038647660186111</v>
       </c>
       <c r="J16">
-        <v>1.035430486727912</v>
+        <v>1.019105424518576</v>
       </c>
       <c r="K16">
-        <v>1.036412635018854</v>
+        <v>1.024504216690294</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.041339773373421</v>
+        <v>1.007038315260766</v>
       </c>
       <c r="N16">
-        <v>1.015769184528679</v>
+        <v>1.010094963359039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029426496961561</v>
+        <v>0.9925266932706848</v>
       </c>
       <c r="D17">
-        <v>1.033228888090423</v>
+        <v>1.011727431646409</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.038363922066092</v>
+        <v>0.9948402741539609</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035906074239954</v>
+        <v>1.039267597032639</v>
       </c>
       <c r="J17">
-        <v>1.035652574140169</v>
+        <v>1.020275120169242</v>
       </c>
       <c r="K17">
-        <v>1.036604414317347</v>
+        <v>1.025532914240505</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.041721544717221</v>
+        <v>1.008939380954305</v>
       </c>
       <c r="N17">
-        <v>1.015843736024145</v>
+        <v>1.010489998188034</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029636915529425</v>
+        <v>0.9936460336863782</v>
       </c>
       <c r="D18">
-        <v>1.033383248900168</v>
+        <v>1.012521448713123</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.038629299988447</v>
+        <v>0.9961531973899488</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035960582305509</v>
+        <v>1.039625172880549</v>
       </c>
       <c r="J18">
-        <v>1.035782053120192</v>
+        <v>1.020951254152983</v>
       </c>
       <c r="K18">
-        <v>1.03671620720082</v>
+        <v>1.026127490129737</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.041944217502855</v>
+        <v>1.010038663680081</v>
       </c>
       <c r="N18">
-        <v>1.015887194041658</v>
+        <v>1.010718338126859</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029708664828842</v>
+        <v>0.9940261243952624</v>
       </c>
       <c r="D19">
-        <v>1.033435884031265</v>
+        <v>1.012791158846018</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.038719797055504</v>
+        <v>0.9965990551896198</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03597914614686</v>
+        <v>1.039746422978805</v>
       </c>
       <c r="J19">
-        <v>1.035826191770978</v>
+        <v>1.021180773458588</v>
       </c>
       <c r="K19">
-        <v>1.036754314009934</v>
+        <v>1.026329314079082</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.042020141822018</v>
+        <v>1.010411892546841</v>
       </c>
       <c r="N19">
-        <v>1.015902007582809</v>
+        <v>1.010795848686718</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029387793003308</v>
+        <v>0.9923200453099836</v>
       </c>
       <c r="D20">
-        <v>1.033200495576348</v>
+        <v>1.011580886159489</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.038315112561897</v>
+        <v>0.9945979028922247</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035896037450732</v>
+        <v>1.039201501769648</v>
       </c>
       <c r="J20">
-        <v>1.035628752553258</v>
+        <v>1.020150260466008</v>
       </c>
       <c r="K20">
-        <v>1.036583845319466</v>
+        <v>1.025423111070486</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.041680585092084</v>
+        <v>1.008736411455988</v>
       </c>
       <c r="N20">
-        <v>1.015835740104911</v>
+        <v>1.010447830710813</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028344748452494</v>
+        <v>0.986660562860927</v>
       </c>
       <c r="D21">
-        <v>1.032435373487711</v>
+        <v>1.007572665868697</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.037000139033847</v>
+        <v>0.9879615982628337</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035624319707957</v>
+        <v>1.037381991269917</v>
       </c>
       <c r="J21">
-        <v>1.034986144426824</v>
+        <v>1.016726784961625</v>
       </c>
       <c r="K21">
-        <v>1.036028828447126</v>
+        <v>1.022411978119163</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.040576559010431</v>
+        <v>1.003174688333487</v>
       </c>
       <c r="N21">
-        <v>1.015619985872421</v>
+        <v>1.009291603460678</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027689054998954</v>
+        <v>0.983011149101134</v>
       </c>
       <c r="D22">
-        <v>1.031954429592371</v>
+        <v>1.004993482063816</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.036173893564367</v>
+        <v>0.9836834644777307</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035452313668282</v>
+        <v>1.036199758578575</v>
       </c>
       <c r="J22">
-        <v>1.034581566192055</v>
+        <v>1.014515543569753</v>
       </c>
       <c r="K22">
-        <v>1.035679251733601</v>
+        <v>1.020466661925338</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.039882340484846</v>
+        <v>0.9995852361274029</v>
       </c>
       <c r="N22">
-        <v>1.015484094377498</v>
+        <v>1.008544757345688</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028036639933616</v>
+        <v>0.9849547122606653</v>
       </c>
       <c r="D23">
-        <v>1.032209375481758</v>
+        <v>1.006366536316579</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.036611851760604</v>
+        <v>0.9859617801384659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035543607790124</v>
+        <v>1.036830207791104</v>
       </c>
       <c r="J23">
-        <v>1.034796092273919</v>
+        <v>1.015693514701721</v>
       </c>
       <c r="K23">
-        <v>1.035864627135417</v>
+        <v>1.021503003032153</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.04025036590585</v>
+        <v>1.001497168008885</v>
       </c>
       <c r="N23">
-        <v>1.015556155541897</v>
+        <v>1.0089426182232</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029405281619244</v>
+        <v>0.9924134497285404</v>
       </c>
       <c r="D24">
-        <v>1.033213324892899</v>
+        <v>1.011647122744111</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.038337167292727</v>
+        <v>0.994707453595808</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035900573044374</v>
+        <v>1.039231379784745</v>
       </c>
       <c r="J24">
-        <v>1.035639516691006</v>
+        <v>1.020206698096842</v>
       </c>
       <c r="K24">
-        <v>1.036593139776625</v>
+        <v>1.025472743194556</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.041699093008076</v>
+        <v>1.008828154164344</v>
       </c>
       <c r="N24">
-        <v>1.015839353198855</v>
+        <v>1.010466890785628</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03099397927544</v>
+        <v>1.000701245644799</v>
       </c>
       <c r="D25">
-        <v>1.034378837461393</v>
+        <v>1.017534977535265</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.040341623565453</v>
+        <v>1.004432417498606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036309724100175</v>
+        <v>1.041860837233836</v>
       </c>
       <c r="J25">
-        <v>1.036615875015264</v>
+        <v>1.025205033101128</v>
       </c>
       <c r="K25">
-        <v>1.037435839763182</v>
+        <v>1.029867050051203</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.043379947889332</v>
+        <v>1.0169623133715</v>
       </c>
       <c r="N25">
-        <v>1.016166943723637</v>
+        <v>1.012154731286652</v>
       </c>
     </row>
   </sheetData>
